--- a/exp. 3 - 3 cause (3 ratings)/3_CAUSE_DATA_SHEET.xlsx
+++ b/exp. 3 - 3 cause (3 ratings)/3_CAUSE_DATA_SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\detbe\OneDrive\Desktop\Grand Folder\Publications\backwards_block_submission\git exps\exp. 3 - 3 cause (3 ratings)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C27E7146-AA30-4D5C-AC1F-CA9D15EBF094}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9E265133-82FE-4F83-A601-91D583E9B0AD}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C27E7146-AA30-4D5C-AC1F-CA9D15EBF094}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E447A98E-57B9-494E-9FD0-88643F90AFC9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
